--- a/Datos clase.xlsx
+++ b/Datos clase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC22\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC22\Documents\Analisis-de-algoritmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CFBB74-B6A0-4A06-B99A-54DA273401F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8100362-6F45-4030-9BF2-30C9B9949AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6E92CBA-52B2-4DFF-91C0-B465F30782D8}"/>
   </bookViews>
@@ -131,6 +131,1028 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5320840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243780</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>258640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>269140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACAC-4AE0-8238-6ADD7773ECB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1258327023"/>
+        <c:axId val="1258327503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1258327023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258327503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1258327503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258327023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D789F6-97F2-114B-9CB0-B08274D12D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +1455,7 @@
   <dimension ref="D3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,8 +1509,8 @@
         <v>5490100</v>
       </c>
       <c r="K4" s="1">
-        <f>AVERAGE(F4+G4+H4+I4+J4)</f>
-        <v>26604200</v>
+        <f>AVERAGE(F4:J4)</f>
+        <v>5320840</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
@@ -514,8 +1536,8 @@
         <v>183300</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K13" si="0">AVERAGE(F5+G5+H5+I5+J5)</f>
-        <v>1222800</v>
+        <f t="shared" ref="K5:K13" si="0">AVERAGE(F5:J5)</f>
+        <v>244560</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
@@ -542,7 +1564,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>1066500</v>
+        <v>213300</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
@@ -569,7 +1591,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>1169900</v>
+        <v>233980</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -596,7 +1618,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>1082400</v>
+        <v>216480</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
@@ -623,7 +1645,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>1006100</v>
+        <v>201220</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
@@ -650,7 +1672,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>1218900</v>
+        <v>243780</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
@@ -677,7 +1699,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>1084500</v>
+        <v>216900</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
@@ -704,7 +1726,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>1293200</v>
+        <v>258640</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
@@ -731,7 +1753,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>1345700</v>
+        <v>269140</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
@@ -762,5 +1784,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datos clase.xlsx
+++ b/Datos clase.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC22\Documents\Analisis-de-algoritmo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8100362-6F45-4030-9BF2-30C9B9949AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6E92CBA-52B2-4DFF-91C0-B465F30782D8}"/>
+    <workbookView windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,19 +32,19 @@
     <t xml:space="preserve">valor </t>
   </si>
   <si>
-    <t>t5</t>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
   </si>
   <si>
     <t>t4</t>
   </si>
   <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t1</t>
+    <t>t5</t>
   </si>
   <si>
     <t>promedio</t>
@@ -63,16 +56,16 @@
     <t>cpu</t>
   </si>
   <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
     <t>Intel(R) Core(TM) i7-9700 CPU @ 3.00GHz</t>
   </si>
   <si>
-    <t>ram</t>
-  </si>
-  <si>
     <t>16,0 GB (15,8 GB usable)</t>
-  </si>
-  <si>
-    <t>Sistema</t>
   </si>
   <si>
     <t>Sistema operativo de 64 bits, procesador basado en x64</t>
@@ -81,25 +74,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,9 +443,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -117,26 +695,70 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -148,6 +770,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -157,41 +780,38 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -200,12 +820,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -213,117 +890,138 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:xVal>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$13</c:f>
+              <c:f>Hoja1!$K$5:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>244560</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1258</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>852</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>777</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$K$4:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5320840</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>244560</c:v>
+                  <c:v>201220</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>213300</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>258640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216900</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>233980</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>216480</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201220</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>243780</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>216900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>258640</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>269140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACAC-4AE0-8238-6ADD7773ECB3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1258327023"/>
-        <c:axId val="1258327503"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1258327023"/>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="256325810"/>
+        <c:axId val="183217707"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="256325810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183217707"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="183217707"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -337,26 +1035,19 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -366,46 +1057,24 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258327503"/>
+        <c:crossAx val="256325810"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1258327503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -413,13 +1082,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -429,25 +1098,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258327023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+      </c:dTable>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -456,22 +1111,15 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -485,9 +1133,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -539,25 +1186,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -565,31 +1212,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -598,18 +1221,41 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -634,93 +1280,80 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst/>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -736,15 +1369,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -752,7 +1386,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -764,18 +1398,17 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -784,12 +1417,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -803,14 +1436,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -822,20 +1455,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -843,14 +1469,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -862,14 +1487,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -881,14 +1506,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -900,12 +1525,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -919,82 +1544,52 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1007,13 +1602,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1022,13 +1617,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1037,7 +1633,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1055,14 +1651,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1071,23 +1666,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1095,54 +1678,41 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:rowOff>14605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D789F6-97F2-114B-9CB0-B08274D12D11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8870950" y="205105"/>
+        <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1198,7 +1768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1231,26 +1801,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1283,23 +1836,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1441,52 +1977,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F575F68-3A88-49CC-B031-6572FF2C3C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:11">
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:11">
       <c r="D4">
         <v>1</v>
       </c>
@@ -1513,7 +2044,7 @@
         <v>5320840</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:11">
       <c r="D5">
         <v>2</v>
       </c>
@@ -1536,119 +2067,119 @@
         <v>183300</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K13" si="0">AVERAGE(F5:J5)</f>
+        <f>AVERAGE(F5:J5)</f>
         <v>244560</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:11">
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1">
-        <v>235800</v>
+        <v>219100</v>
       </c>
       <c r="G6" s="1">
-        <v>218900</v>
+        <v>186700</v>
       </c>
       <c r="H6" s="1">
-        <v>177900</v>
+        <v>180400</v>
       </c>
       <c r="I6" s="1">
-        <v>191000</v>
+        <v>233200</v>
       </c>
       <c r="J6" s="1">
-        <v>242900</v>
+        <v>186700</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>213300</v>
+        <f>AVERAGE(F6:J6)</f>
+        <v>201220</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11">
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F7" s="1">
-        <v>257600</v>
+        <v>235800</v>
       </c>
       <c r="G7" s="1">
-        <v>188300</v>
+        <v>218900</v>
       </c>
       <c r="H7" s="1">
-        <v>230800</v>
+        <v>177900</v>
       </c>
       <c r="I7" s="1">
-        <v>285600</v>
+        <v>191000</v>
       </c>
       <c r="J7" s="1">
-        <v>207600</v>
+        <v>242900</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>233980</v>
+        <f>AVERAGE(F7:J7)</f>
+        <v>213300</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11">
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>1258</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1">
-        <v>206600</v>
+        <v>186000</v>
       </c>
       <c r="G8" s="1">
-        <v>253200</v>
+        <v>447700</v>
       </c>
       <c r="H8" s="1">
-        <v>241000</v>
+        <v>215100</v>
       </c>
       <c r="I8" s="1">
-        <v>187100</v>
+        <v>203300</v>
       </c>
       <c r="J8" s="1">
-        <v>194500</v>
+        <v>241100</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>216480</v>
+        <f>AVERAGE(F8:J8)</f>
+        <v>258640</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11">
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" s="1">
-        <v>135</v>
+        <v>777</v>
       </c>
       <c r="F9" s="1">
-        <v>219100</v>
+        <v>429600</v>
       </c>
       <c r="G9" s="1">
-        <v>186700</v>
+        <v>229000</v>
       </c>
       <c r="H9" s="1">
-        <v>180400</v>
+        <v>233500</v>
       </c>
       <c r="I9" s="1">
-        <v>233200</v>
+        <v>262000</v>
       </c>
       <c r="J9" s="1">
-        <v>186700</v>
+        <v>191600</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>201220</v>
+        <f>AVERAGE(F9:J9)</f>
+        <v>269140</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11">
       <c r="D10">
         <v>7</v>
       </c>
@@ -1671,11 +2202,11 @@
         <v>231800</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F10:J10)</f>
         <v>243780</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11">
       <c r="D11">
         <v>8</v>
       </c>
@@ -1698,65 +2229,65 @@
         <v>239600</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F11:J11)</f>
         <v>216900</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11">
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>666</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="1">
-        <v>186000</v>
+        <v>257600</v>
       </c>
       <c r="G12" s="1">
-        <v>447700</v>
+        <v>188300</v>
       </c>
       <c r="H12" s="1">
-        <v>215100</v>
+        <v>230800</v>
       </c>
       <c r="I12" s="1">
-        <v>203300</v>
+        <v>285600</v>
       </c>
       <c r="J12" s="1">
-        <v>241100</v>
+        <v>207600</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>258640</v>
+        <f>AVERAGE(F12:J12)</f>
+        <v>233980</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11">
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>777</v>
+        <v>1258</v>
       </c>
       <c r="F13" s="1">
-        <v>429600</v>
+        <v>206600</v>
       </c>
       <c r="G13" s="1">
-        <v>229000</v>
+        <v>253200</v>
       </c>
       <c r="H13" s="1">
-        <v>233500</v>
+        <v>241000</v>
       </c>
       <c r="I13" s="1">
-        <v>262000</v>
+        <v>187100</v>
       </c>
       <c r="J13" s="1">
-        <v>191600</v>
+        <v>194500</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>269140</v>
+        <f>AVERAGE(F13:J13)</f>
+        <v>216480</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -1764,18 +2295,18 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="K17" t="s">
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -1783,7 +2314,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos clase.xlsx
+++ b/Datos clase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC26\Desktop\Analisis-de-algoritmo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF94C3-5821-44D8-ACED-782A50A8AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">valor </t>
   </si>
@@ -70,18 +74,18 @@
   <si>
     <t>Sistema operativo de 64 bits, procesador basado en x64</t>
   </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,353 +93,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -443,322 +110,100 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -770,7 +215,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Grafico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -780,22 +255,29 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -809,13 +291,19 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -829,15 +317,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -845,6 +334,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -857,18 +347,16 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -876,20 +364,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -899,9 +373,8 @@
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -916,10 +389,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>244560</c:v>
+                  <c:v>173480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201220</c:v>
+                  <c:v>173860</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>213300</c:v>
@@ -946,8 +419,14 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DD7-44DE-BAEC-8376ED84D0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -955,7 +434,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="256325810"/>
         <c:axId val="183217707"/>
@@ -974,9 +452,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -984,15 +462,14 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1000,6 +477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="183217707"/>
@@ -1021,7 +499,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="90200"/>
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1041,15 +520,14 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1057,50 +535,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="256325810"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1114,17 +555,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1133,8 +585,391 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr/>
       </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Graficos </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AC$4:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4603716.666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4654066.666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5040200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4571316.666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4918816.666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5101066.666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4936100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5348950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5464966.666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7936799.833333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B86-4767-A96C-72A470105169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="664662271"/>
+        <c:axId val="664657951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="664662271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664657951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664657951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664662271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1185,36 +1020,74 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1222,26 +1095,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1250,12 +1131,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1271,36 +1151,28 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1309,31 +1181,28 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst/>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1342,16 +1211,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1369,21 +1239,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1393,20 +1260,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1420,14 +1287,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1441,9 +1308,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1457,12 +1323,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1475,7 +1335,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="90200"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1490,14 +1351,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1509,14 +1369,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1528,14 +1388,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1544,14 +1403,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1559,7 +1417,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1572,11 +1430,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1584,14 +1452,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1603,12 +1471,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1624,7 +1499,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1633,9 +1507,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1645,7 +1518,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1653,9 +1526,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1666,11 +1539,506 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1680,39 +2048,39 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:colOff>319157</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7455</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
+      <xdr:rowOff>74240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8870950" y="205105"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1722,7 +2090,81 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>149088</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71230</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A644524-6FA9-7606-E1D7-42AF2FEE603A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B21FFED-EF7C-4DFB-B053-DD0D3D38D6DC}" name="Tabla1" displayName="Tabla1" ref="D3:K13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="D3:K13" xr:uid="{1B21FFED-EF7C-4DFB-B053-DD0D3D38D6DC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{ACB9D351-40E3-4731-B034-6F9B2E9AA3B3}" name="Columna1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{90E41C79-71BE-4511-A516-1AAFADE0BBE6}" name="valor " dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{25A54337-3C00-4A33-98C0-153EADB26FA3}" name="t1" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{609F18A0-8D29-4739-B69A-AF1CE4772CA2}" name="t2" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{7AA35793-639D-4137-8A05-7EE0A3DC46B9}" name="t3" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{F89FB432-DC0D-4621-A1ED-762894BEBB8F}" name="t4" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{E6EC54CA-2506-433C-8AC8-6588095D20AA}" name="t5" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{7136E329-FA67-4F55-AD08-EF18999406B4}" name="promedio" dataDxfId="12">
+      <calculatedColumnFormula>AVERAGE(F4:J4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CB9B929-70B8-4BFE-93C2-6C408F1FA490}" name="Tabla2" displayName="Tabla2" ref="V3:AC13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="V3:AC13" xr:uid="{3CB9B929-70B8-4BFE-93C2-6C408F1FA490}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6275F2FA-0C09-4090-B55D-AF12D32F5D28}" name="Columna1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{171D1BA2-0227-4656-84F1-9EFAE3206D77}" name="Valor" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{AE50212E-3E70-4061-AAF8-949AE06C7FA4}" name="t1" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{023B91AD-D6A9-453B-BA2E-BAF2D24DB216}" name="t2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1A664FB8-7480-4E2B-A914-9EC108DF0C77}" name="t3" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0BAA03A1-279A-4730-A000-3B1E98E68472}" name="t4" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{DCA54DBC-3D3D-4678-85D0-BBEB743A3539}" name="t5" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D6B1B364-FD1F-41AF-92FD-597A24E901BB}" name="promedio" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(W4:AB4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1977,314 +2419,594 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D3:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D3:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:11">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="4:29">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="V3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="4:11">
-      <c r="D4">
+    <row r="4" spans="4:29">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
-        <v>5682100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5420700</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5023200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4988100</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5490100</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="F4" s="2">
+        <v>8470200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7943700</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8715000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7713200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8491000</v>
+      </c>
+      <c r="K4" s="2">
         <f>AVERAGE(F4:J4)</f>
-        <v>5320840</v>
+        <v>8266620</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>100</v>
+      </c>
+      <c r="X4" s="1">
+        <v>5805200</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>5691700</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5118400</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>6029600</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4977300</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>AVERAGE(W4:AB4)</f>
+        <v>4603716.666666667</v>
       </c>
     </row>
-    <row r="5" spans="4:11">
-      <c r="D5">
+    <row r="5" spans="4:29">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
-        <v>377300</v>
-      </c>
-      <c r="G5" s="1">
-        <v>271100</v>
-      </c>
-      <c r="H5" s="1">
-        <v>177500</v>
-      </c>
-      <c r="I5" s="1">
-        <v>213600</v>
-      </c>
-      <c r="J5" s="1">
-        <v>183300</v>
-      </c>
-      <c r="K5" s="1">
-        <f>AVERAGE(F5:J5)</f>
-        <v>244560</v>
+      <c r="F5" s="2">
+        <v>172500</v>
+      </c>
+      <c r="G5" s="2">
+        <v>169000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>178300</v>
+      </c>
+      <c r="I5" s="2">
+        <v>174900</v>
+      </c>
+      <c r="J5" s="2">
+        <v>172700</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K13" si="0">AVERAGE(F5:J5)</f>
+        <v>173480</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>200</v>
+      </c>
+      <c r="X5" s="1">
+        <v>5874800</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4917600</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>5336700</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5827700</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5967400</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5:AC13" si="1">AVERAGE(W5:AB5)</f>
+        <v>4654066.666666667</v>
       </c>
     </row>
-    <row r="6" spans="4:11">
-      <c r="D6">
+    <row r="6" spans="4:29">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>135</v>
       </c>
-      <c r="F6" s="1">
-        <v>219100</v>
-      </c>
-      <c r="G6" s="1">
-        <v>186700</v>
-      </c>
-      <c r="H6" s="1">
-        <v>180400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>233200</v>
-      </c>
-      <c r="J6" s="1">
-        <v>186700</v>
-      </c>
-      <c r="K6" s="1">
-        <f>AVERAGE(F6:J6)</f>
-        <v>201220</v>
+      <c r="F6" s="2">
+        <v>176200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>174100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>174100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>169200</v>
+      </c>
+      <c r="J6" s="2">
+        <v>175700</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>173860</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>300</v>
+      </c>
+      <c r="X6" s="1">
+        <v>6038400</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>6320700</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5843400</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>6022600</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>6015800</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="1"/>
+        <v>5040200</v>
       </c>
     </row>
-    <row r="7" spans="4:11">
-      <c r="D7">
+    <row r="7" spans="4:29">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>500</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>235800</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>218900</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>177900</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>191000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>242900</v>
       </c>
-      <c r="K7" s="1">
-        <f>AVERAGE(F7:J7)</f>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
         <v>213300</v>
       </c>
+      <c r="V7" s="1">
+        <v>4</v>
+      </c>
+      <c r="W7" s="1">
+        <v>500</v>
+      </c>
+      <c r="X7" s="1">
+        <v>6045300</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>6344600</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5261400</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>4638400</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>5137700</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="1"/>
+        <v>4571316.666666667</v>
+      </c>
     </row>
-    <row r="8" spans="4:11">
-      <c r="D8">
+    <row r="8" spans="4:29">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>666</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>186000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>447700</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>215100</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>203300</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>241100</v>
       </c>
-      <c r="K8" s="1">
-        <f>AVERAGE(F8:J8)</f>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
         <v>258640</v>
       </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X8" s="1">
+        <v>5936100</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6116500</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4952200</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>6596600</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>5910500</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="1"/>
+        <v>4918816.666666667</v>
+      </c>
     </row>
-    <row r="9" spans="4:11">
-      <c r="D9">
+    <row r="9" spans="4:29">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>777</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>429600</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>229000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>233500</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>262000</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>191600</v>
       </c>
-      <c r="K9" s="1">
-        <f>AVERAGE(F9:J9)</f>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
         <v>269140</v>
       </c>
+      <c r="V9" s="1">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5925400</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>6281500</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>6208100</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>6082200</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>6107700</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="1"/>
+        <v>5101066.666666667</v>
+      </c>
     </row>
-    <row r="10" spans="4:11">
-      <c r="D10">
+    <row r="10" spans="4:29">
+      <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>852</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>210300</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>223800</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>321200</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>231800</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>231800</v>
       </c>
-      <c r="K10" s="1">
-        <f>AVERAGE(F10:J10)</f>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
         <v>243780</v>
       </c>
+      <c r="V10" s="1">
+        <v>7</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="X10" s="1">
+        <v>5874900</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5936600</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6432800</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>6331800</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>5035500</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="1"/>
+        <v>4936100</v>
+      </c>
     </row>
-    <row r="11" spans="4:11">
-      <c r="D11">
+    <row r="11" spans="4:29">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>987</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>189000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>231500</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>180100</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>244300</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>239600</v>
       </c>
-      <c r="K11" s="1">
-        <f>AVERAGE(F11:J11)</f>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
         <v>216900</v>
       </c>
+      <c r="V11" s="1">
+        <v>8</v>
+      </c>
+      <c r="W11" s="1">
+        <v>50000</v>
+      </c>
+      <c r="X11" s="1">
+        <v>6646500</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>6167000</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>6212300</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>6516500</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>6501400</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="1"/>
+        <v>5348950</v>
+      </c>
     </row>
-    <row r="12" spans="4:11">
-      <c r="D12">
+    <row r="12" spans="4:29">
+      <c r="D12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>257600</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>188300</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>230800</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>285600</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>207600</v>
       </c>
-      <c r="K12" s="1">
-        <f>AVERAGE(F12:J12)</f>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
         <v>233980</v>
       </c>
+      <c r="V12" s="1">
+        <v>9</v>
+      </c>
+      <c r="W12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X12" s="1">
+        <v>6940900</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5097900</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>7471300</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>6718200</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>6461500</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="1"/>
+        <v>5464966.666666667</v>
+      </c>
     </row>
-    <row r="13" spans="4:11">
-      <c r="D13">
+    <row r="13" spans="4:29">
+      <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>1258</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>206600</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>253200</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>241000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>187100</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>194500</v>
       </c>
-      <c r="K13" s="1">
-        <f>AVERAGE(F13:J13)</f>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
         <v>216480</v>
+      </c>
+      <c r="V13" s="1">
+        <v>10</v>
+      </c>
+      <c r="W13" s="1">
+        <v>999999</v>
+      </c>
+      <c r="X13" s="1">
+        <v>9106600</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>9072300</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>9757000</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>9143900</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>9541000</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="1"/>
+        <v>7936799.833333333</v>
       </c>
     </row>
     <row r="17" spans="4:11">
@@ -2301,7 +3023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:11">
+    <row r="18" spans="4:11">
       <c r="E18" t="s">
         <v>11</v>
       </c>
@@ -2315,7 +3037,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Datos clase.xlsx
+++ b/Datos clase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC26\Desktop\Analisis-de-algoritmo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC12\Desktop\Analisis-de-algoritmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF94C3-5821-44D8-ACED-782A50A8AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6339F2-D1F1-4E10-9DF1-233FC3401B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t xml:space="preserve">valor </t>
   </si>
@@ -80,17 +80,49 @@
   <si>
     <t>Columna1</t>
   </si>
+  <si>
+    <t xml:space="preserve">t5 </t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t>Columna6</t>
+  </si>
+  <si>
+    <t>Columna7</t>
+  </si>
+  <si>
+    <t>Columna8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +804,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -980,6 +1012,465 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Promedio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$22:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9C6-48EB-8A59-12D3D52BB52A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9C6-48EB-8A59-12D3D52BB52A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$22:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9C6-48EB-8A59-12D3D52BB52A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="267323856"/>
+        <c:axId val="267324336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="267323856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267324336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267324336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267323856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1060,6 +1551,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -2047,6 +2544,508 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2126,21 +3125,57 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42978C1D-6778-0EE5-ADCB-803647B07450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B21FFED-EF7C-4DFB-B053-DD0D3D38D6DC}" name="Tabla1" displayName="Tabla1" ref="D3:K13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B21FFED-EF7C-4DFB-B053-DD0D3D38D6DC}" name="Tabla1" displayName="Tabla1" ref="D3:K13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="D3:K13" xr:uid="{1B21FFED-EF7C-4DFB-B053-DD0D3D38D6DC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ACB9D351-40E3-4731-B034-6F9B2E9AA3B3}" name="Columna1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{90E41C79-71BE-4511-A516-1AAFADE0BBE6}" name="valor " dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{25A54337-3C00-4A33-98C0-153EADB26FA3}" name="t1" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{609F18A0-8D29-4739-B69A-AF1CE4772CA2}" name="t2" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{7AA35793-639D-4137-8A05-7EE0A3DC46B9}" name="t3" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{F89FB432-DC0D-4621-A1ED-762894BEBB8F}" name="t4" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{E6EC54CA-2506-433C-8AC8-6588095D20AA}" name="t5" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{7136E329-FA67-4F55-AD08-EF18999406B4}" name="promedio" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{ACB9D351-40E3-4731-B034-6F9B2E9AA3B3}" name="Columna1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{90E41C79-71BE-4511-A516-1AAFADE0BBE6}" name="valor " dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{25A54337-3C00-4A33-98C0-153EADB26FA3}" name="t1" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{609F18A0-8D29-4739-B69A-AF1CE4772CA2}" name="t2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{7AA35793-639D-4137-8A05-7EE0A3DC46B9}" name="t3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F89FB432-DC0D-4621-A1ED-762894BEBB8F}" name="t4" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{E6EC54CA-2506-433C-8AC8-6588095D20AA}" name="t5" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{7136E329-FA67-4F55-AD08-EF18999406B4}" name="promedio" dataDxfId="10">
       <calculatedColumnFormula>AVERAGE(F4:J4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2149,18 +3184,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CB9B929-70B8-4BFE-93C2-6C408F1FA490}" name="Tabla2" displayName="Tabla2" ref="V3:AC13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CB9B929-70B8-4BFE-93C2-6C408F1FA490}" name="Tabla2" displayName="Tabla2" ref="V3:AC13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="V3:AC13" xr:uid="{3CB9B929-70B8-4BFE-93C2-6C408F1FA490}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6275F2FA-0C09-4090-B55D-AF12D32F5D28}" name="Columna1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{171D1BA2-0227-4656-84F1-9EFAE3206D77}" name="Valor" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{AE50212E-3E70-4061-AAF8-949AE06C7FA4}" name="t1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{023B91AD-D6A9-453B-BA2E-BAF2D24DB216}" name="t2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1A664FB8-7480-4E2B-A914-9EC108DF0C77}" name="t3" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{0BAA03A1-279A-4730-A000-3B1E98E68472}" name="t4" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{DCA54DBC-3D3D-4678-85D0-BBEB743A3539}" name="t5" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D6B1B364-FD1F-41AF-92FD-597A24E901BB}" name="promedio" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{6275F2FA-0C09-4090-B55D-AF12D32F5D28}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{171D1BA2-0227-4656-84F1-9EFAE3206D77}" name="Valor" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{AE50212E-3E70-4061-AAF8-949AE06C7FA4}" name="t1" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{023B91AD-D6A9-453B-BA2E-BAF2D24DB216}" name="t2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A664FB8-7480-4E2B-A914-9EC108DF0C77}" name="t3" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0BAA03A1-279A-4730-A000-3B1E98E68472}" name="t4" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{DCA54DBC-3D3D-4678-85D0-BBEB743A3539}" name="t5" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D6B1B364-FD1F-41AF-92FD-597A24E901BB}" name="promedio" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(W4:AB4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E87B9B56-8552-4EA9-86E5-CADEE9A778D1}" name="Tabla3" displayName="Tabla3" ref="D20:K32" totalsRowShown="0">
+  <autoFilter ref="D20:K32" xr:uid="{E87B9B56-8552-4EA9-86E5-CADEE9A778D1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{66D56802-EBA0-488F-8FBF-13000C3A9705}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{9D388547-619D-4A4F-9964-26A104A87434}" name="Columna2"/>
+    <tableColumn id="3" xr3:uid="{00B8DF96-4FE1-4B0C-8905-87BFFDFD8419}" name="Columna3"/>
+    <tableColumn id="4" xr3:uid="{E90CCA0C-D2A4-434D-B926-327E01502964}" name="Columna4"/>
+    <tableColumn id="5" xr3:uid="{C54733CC-7653-43A3-B7E0-029F5EE808AE}" name="Columna5"/>
+    <tableColumn id="6" xr3:uid="{B9E39F04-2C8B-4988-A90C-0CDB58830BFC}" name="Columna6"/>
+    <tableColumn id="7" xr3:uid="{93A539B6-3BCE-4A38-B8CC-ED9247E2EEE3}" name="Columna7"/>
+    <tableColumn id="8" xr3:uid="{C0EB3EC3-EA5E-4F33-9931-B8E8CA2DC0FB}" name="Columna8">
+      <calculatedColumnFormula>AVERAGE(F21:J21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2425,16 +3479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:AC18"/>
+  <dimension ref="D3:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="4" max="11" width="12" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -3034,13 +4087,333 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="4:11">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(F22:J22)</f>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3">
+        <v>56</v>
+      </c>
+      <c r="I23">
+        <v>59</v>
+      </c>
+      <c r="J23" s="3">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K31" si="2">AVERAGE(F23:J23)</f>
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>150</v>
+      </c>
+      <c r="F24">
+        <v>59</v>
+      </c>
+      <c r="G24">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="I24">
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>76</v>
+      </c>
+      <c r="G25">
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <v>68</v>
+      </c>
+      <c r="J25" s="3">
+        <v>74</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>250</v>
+      </c>
+      <c r="F26">
+        <v>96</v>
+      </c>
+      <c r="G26">
+        <v>94</v>
+      </c>
+      <c r="H26">
+        <v>98</v>
+      </c>
+      <c r="I26">
+        <v>98</v>
+      </c>
+      <c r="J26" s="3">
+        <v>109</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>128</v>
+      </c>
+      <c r="G27">
+        <v>110</v>
+      </c>
+      <c r="H27" s="3">
+        <v>107</v>
+      </c>
+      <c r="I27">
+        <v>140</v>
+      </c>
+      <c r="J27" s="3">
+        <v>116</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>350</v>
+      </c>
+      <c r="F28" s="3">
+        <v>186</v>
+      </c>
+      <c r="G28" s="3">
+        <v>150</v>
+      </c>
+      <c r="H28">
+        <v>160</v>
+      </c>
+      <c r="I28" s="3">
+        <v>146</v>
+      </c>
+      <c r="J28" s="3">
+        <v>151</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>158.6</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29" s="3">
+        <v>184</v>
+      </c>
+      <c r="G29" s="3">
+        <v>198</v>
+      </c>
+      <c r="H29" s="3">
+        <v>181</v>
+      </c>
+      <c r="I29" s="3">
+        <v>197</v>
+      </c>
+      <c r="J29" s="3">
+        <v>190</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>450</v>
+      </c>
+      <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
+        <v>252</v>
+      </c>
+      <c r="H30">
+        <v>237</v>
+      </c>
+      <c r="I30">
+        <v>224</v>
+      </c>
+      <c r="J30" s="3">
+        <v>258</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>241.8</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31">
+        <v>289</v>
+      </c>
+      <c r="G31" s="3">
+        <v>289</v>
+      </c>
+      <c r="H31">
+        <v>285</v>
+      </c>
+      <c r="I31">
+        <v>309</v>
+      </c>
+      <c r="J31">
+        <v>318</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>